--- a/mcmaster_excel/Stainless_Steel_Binding_Head_Slotted_Screws.xlsx
+++ b/mcmaster_excel/Stainless_Steel_Binding_Head_Slotted_Screws.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L111"/>
+  <dimension ref="A1:L112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,129 +434,97 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Lg.</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Threading</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Min.Thread Lg.</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>HeadDia.</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Head Ht.</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>TensileStrength, psi</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Specifications Met</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.Qty.</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr"/>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>thread_size</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>material_surface</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1/8"</t>
+          <t>Lg.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fully Threaded</t>
+          <t>Threading</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>__</t>
+          <t>Min.Thread Lg.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.126"</t>
+          <t>HeadDia.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.032"</t>
+          <t>Head Ht.</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>100,000</t>
+          <t>TensileStrength, psi</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>ASME B18.6.3</t>
+          <t>Specifications Met</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>91793A052</t>
-        </is>
-      </c>
+          <t>Pkg.Qty.</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>$9.05</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>0-80</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>18-8 Stainless Steel</t>
-        </is>
-      </c>
+          <t>Pkg.</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>3/16"</t>
+          <t>1/8"</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -596,12 +564,12 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>91793A054</t>
+          <t>91793A052</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>9.17</t>
+          <t>$9.05</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -618,7 +586,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>3/16"</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -658,12 +626,12 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>91793A055</t>
+          <t>91793A054</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>10.72</t>
+          <t>9.17</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -680,7 +648,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>5/16"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -720,12 +688,12 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>91793A056</t>
+          <t>91793A055</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>11.26</t>
+          <t>10.72</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -742,7 +710,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>5/16"</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -782,12 +750,12 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>91793A057</t>
+          <t>91793A056</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>12.62</t>
+          <t>11.26</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -804,7 +772,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -839,17 +807,17 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>91793A059</t>
+          <t>91793A057</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>7.90</t>
+          <t>12.62</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -866,7 +834,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -906,12 +874,12 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>91793A071</t>
+          <t>91793A059</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>11.05</t>
+          <t>7.90</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -928,7 +896,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>5/16"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -943,12 +911,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.153"</t>
+          <t>0.126"</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.041"</t>
+          <t>0.032"</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -968,17 +936,17 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>91793A067</t>
+          <t>91793A071</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>5.93</t>
+          <t>11.05</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>1-72</t>
+          <t>0-80</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -990,7 +958,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>5/16"</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1030,12 +998,12 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>91793A070</t>
+          <t>91793A067</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>7.75</t>
+          <t>5.93</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1052,7 +1020,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1/8"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1067,12 +1035,12 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.181"</t>
+          <t>0.153"</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.050"</t>
+          <t>0.041"</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1087,22 +1055,22 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>91793A074</t>
+          <t>91793A070</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>8.27</t>
+          <t>7.75</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>1-72</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1114,7 +1082,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>3/16"</t>
+          <t>1/8"</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1154,12 +1122,12 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>91793A076</t>
+          <t>91793A074</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>4.88</t>
+          <t>8.27</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1176,7 +1144,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>3/16"</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1216,12 +1184,12 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>91793A077</t>
+          <t>91793A076</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>4.97</t>
+          <t>4.88</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1238,7 +1206,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>5/16"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1278,12 +1246,12 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>91793A078</t>
+          <t>91793A077</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>5.22</t>
+          <t>4.97</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1300,7 +1268,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>5/16"</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1340,12 +1308,12 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>91793A079</t>
+          <t>91793A078</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>5.28</t>
+          <t>5.22</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1362,7 +1330,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>7/16"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1402,12 +1370,12 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>91793A080</t>
+          <t>91793A079</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>5.17</t>
+          <t>5.28</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1424,7 +1392,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>7/16"</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1464,12 +1432,12 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>91793A081</t>
+          <t>91793A080</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>5.23</t>
+          <t>5.17</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1486,7 +1454,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1526,12 +1494,12 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>91793A083</t>
+          <t>91793A081</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>6.39</t>
+          <t>5.23</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1548,7 +1516,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1588,12 +1556,12 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>91793A084</t>
+          <t>91793A083</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>6.69</t>
+          <t>6.39</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1610,7 +1578,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>7/8"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1650,12 +1618,12 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>91793A086</t>
+          <t>91793A084</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>6.93</t>
+          <t>6.69</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1672,7 +1640,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>7/8"</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1712,12 +1680,12 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>91793A187</t>
+          <t>91793A086</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>7.12</t>
+          <t>6.93</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1734,7 +1702,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1 1/4"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1769,17 +1737,17 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>91793A266</t>
+          <t>91793A187</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>9.12</t>
+          <t>7.12</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -1796,7 +1764,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>1 1/4"</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1836,12 +1804,12 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>91793A267</t>
+          <t>91793A266</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>11.52</t>
+          <t>9.12</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1858,7 +1826,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>3/16"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1873,12 +1841,12 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.208"</t>
+          <t>0.181"</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0.059"</t>
+          <t>0.050"</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1893,22 +1861,22 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>91793A091</t>
+          <t>91793A267</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>7.76</t>
+          <t>11.52</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>3-48</t>
+          <t>2-56</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -1920,7 +1888,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>3/16"</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1960,12 +1928,12 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>91793A092</t>
+          <t>91793A091</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>7.76</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -1982,7 +1950,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2022,12 +1990,12 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>91793A094</t>
+          <t>91793A092</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>7.65</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2044,7 +2012,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2084,12 +2052,12 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>91793A096</t>
+          <t>91793A094</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>8.48</t>
+          <t>7.65</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2106,7 +2074,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2141,17 +2109,17 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>91793A099</t>
+          <t>91793A096</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>6.16</t>
+          <t>8.48</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2168,7 +2136,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>7/8"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2208,12 +2176,12 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>91793A100</t>
+          <t>91793A099</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>7.59</t>
+          <t>6.16</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2230,7 +2198,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>7/8"</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2270,12 +2238,12 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>91793A101</t>
+          <t>91793A100</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>7.88</t>
+          <t>7.59</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2292,7 +2260,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>1/8"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2307,12 +2275,12 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.235"</t>
+          <t>0.208"</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0.068"</t>
+          <t>0.059"</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2327,22 +2295,22 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>91793A103</t>
+          <t>91793A101</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>8.77</t>
+          <t>7.88</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>4-40</t>
+          <t>3-48</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -2354,7 +2322,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>3/16"</t>
+          <t>1/8"</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2394,12 +2362,12 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>91793A105</t>
+          <t>91793A103</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>5.18</t>
+          <t>8.77</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2416,7 +2384,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>3/16"</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2456,12 +2424,12 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>91793A106</t>
+          <t>91793A105</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>5.44</t>
+          <t>5.18</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2478,7 +2446,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>5/16"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2518,12 +2486,12 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>91793A107</t>
+          <t>91793A106</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>5.62</t>
+          <t>5.44</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -2540,7 +2508,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>5/16"</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2580,12 +2548,12 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>91793A108</t>
+          <t>91793A107</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>5.68</t>
+          <t>5.62</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -2602,7 +2570,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>7/16"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2642,12 +2610,12 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>91793A109</t>
+          <t>91793A108</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>6.37</t>
+          <t>5.68</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -2664,7 +2632,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>7/16"</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2704,12 +2672,12 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>91793A110</t>
+          <t>91793A109</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>6.57</t>
+          <t>6.37</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -2726,7 +2694,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>9/16"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2766,12 +2734,12 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>91793A111</t>
+          <t>91793A110</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>6.94</t>
+          <t>6.57</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -2788,7 +2756,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>9/16"</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2828,12 +2796,12 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>91793A112</t>
+          <t>91793A111</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>7.04</t>
+          <t>6.94</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -2850,7 +2818,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2890,12 +2858,12 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>91793A113</t>
+          <t>91793A112</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>7.47</t>
+          <t>7.04</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -2912,7 +2880,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>7/8"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2952,12 +2920,12 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>91793A114</t>
+          <t>91793A113</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>7.66</t>
+          <t>7.47</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -2974,7 +2942,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>7/8"</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -3014,12 +2982,12 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>91793A115</t>
+          <t>91793A114</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>8.16</t>
+          <t>7.66</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -3036,7 +3004,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>1 1/4"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -3076,12 +3044,12 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>91793A117</t>
+          <t>91793A115</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>10.39</t>
+          <t>8.16</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -3098,7 +3066,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>1 1/4"</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -3138,12 +3106,12 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>91793A119</t>
+          <t>91793A117</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>11.67</t>
+          <t>10.39</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -3160,7 +3128,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>3/16"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -3175,12 +3143,12 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0.263"</t>
+          <t>0.235"</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>0.078"</t>
+          <t>0.068"</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3200,17 +3168,17 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>91793A123</t>
+          <t>91793A119</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>7.54</t>
+          <t>11.67</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>5-40</t>
+          <t>4-40</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -3222,7 +3190,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>3/16"</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -3262,12 +3230,12 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>91793A124</t>
+          <t>91793A123</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>7.28</t>
+          <t>7.54</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -3284,7 +3252,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>5/16"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -3324,12 +3292,12 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>91793A125</t>
+          <t>91793A124</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>7.29</t>
+          <t>7.28</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -3346,7 +3314,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>5/16"</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -3386,12 +3354,12 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>91793A126</t>
+          <t>91793A125</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>7.49</t>
+          <t>7.29</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -3408,7 +3376,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -3448,12 +3416,12 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>91793A128</t>
+          <t>91793A126</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>8.32</t>
+          <t>7.49</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -3470,7 +3438,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -3510,12 +3478,12 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>91793A133</t>
+          <t>91793A128</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>10.02</t>
+          <t>8.32</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -3532,7 +3500,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>1/8"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -3547,12 +3515,12 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0.290"</t>
+          <t>0.263"</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>0.087"</t>
+          <t>0.078"</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3572,17 +3540,17 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>91793A142</t>
+          <t>91793A133</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>9.02</t>
+          <t>10.02</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>6-32</t>
+          <t>5-40</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -3594,7 +3562,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>3/16"</t>
+          <t>1/8"</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -3634,12 +3602,12 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>91793A143</t>
+          <t>91793A142</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>6.81</t>
+          <t>9.02</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -3656,7 +3624,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>3/16"</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -3696,12 +3664,12 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>91793A144</t>
+          <t>91793A143</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>6.53</t>
+          <t>6.81</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -3718,7 +3686,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>5/16"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -3758,12 +3726,12 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>91793A145</t>
+          <t>91793A144</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>6.65</t>
+          <t>6.53</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -3780,7 +3748,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>5/16"</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -3820,12 +3788,12 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>91793A146</t>
+          <t>91793A145</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>6.83</t>
+          <t>6.65</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -3842,7 +3810,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>7/16"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -3882,12 +3850,12 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>91793A147</t>
+          <t>91793A146</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>7.59</t>
+          <t>6.83</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -3904,7 +3872,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>7/16"</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -3944,12 +3912,12 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>91793A148</t>
+          <t>91793A147</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>7.56</t>
+          <t>7.59</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -3966,7 +3934,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -4006,12 +3974,12 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>91793A150</t>
+          <t>91793A148</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>7.97</t>
+          <t>7.56</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -4028,7 +3996,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -4068,12 +4036,12 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>91793A151</t>
+          <t>91793A150</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>8.23</t>
+          <t>7.97</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -4090,7 +4058,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>7/8"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -4130,12 +4098,12 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>91793A152</t>
+          <t>91793A151</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>9.32</t>
+          <t>8.23</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -4152,7 +4120,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>7/8"</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -4192,12 +4160,12 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>91793A153</t>
+          <t>91793A152</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>10.75</t>
+          <t>9.32</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -4214,7 +4182,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>1 1/4"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -4254,12 +4222,12 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>91793A155</t>
+          <t>91793A153</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>14.31</t>
+          <t>10.75</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -4276,7 +4244,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>1 1/4"</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -4311,17 +4279,17 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>91793A157</t>
+          <t>91793A155</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>8.86</t>
+          <t>14.31</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -4338,7 +4306,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>1 3/4"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -4378,12 +4346,12 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>91793A158</t>
+          <t>91793A157</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>9.13</t>
+          <t>8.86</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -4400,7 +4368,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2"</t>
+          <t>1 3/4"</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -4440,12 +4408,12 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>91793A159</t>
+          <t>91793A158</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>11.05</t>
+          <t>9.13</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -4462,7 +4430,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>3/16"</t>
+          <t>2"</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -4477,12 +4445,12 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>0.344"</t>
+          <t>0.290"</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>0.105"</t>
+          <t>0.087"</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -4497,22 +4465,22 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>91793A189</t>
+          <t>91793A159</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>7.51</t>
+          <t>11.05</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>8-32</t>
+          <t>6-32</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
@@ -4524,7 +4492,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>3/16"</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -4564,12 +4532,12 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>91793A190</t>
+          <t>91793A189</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>8.36</t>
+          <t>7.51</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -4586,7 +4554,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>5/16"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -4626,12 +4594,12 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>91793A191</t>
+          <t>91793A190</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>9.00</t>
+          <t>8.36</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -4648,7 +4616,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>5/16"</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -4688,12 +4656,12 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>91793A192</t>
+          <t>91793A191</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>9.66</t>
+          <t>9.00</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -4710,7 +4678,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>7/16"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -4750,12 +4718,12 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>91793A193</t>
+          <t>91793A192</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>9.82</t>
+          <t>9.66</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -4772,7 +4740,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>7/16"</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -4812,12 +4780,12 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>91793A194</t>
+          <t>91793A193</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>9.91</t>
+          <t>9.82</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -4834,7 +4802,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -4874,12 +4842,12 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>91793A196</t>
+          <t>91793A194</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>10.60</t>
+          <t>9.91</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -4896,7 +4864,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -4936,12 +4904,12 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>91793A197</t>
+          <t>91793A196</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>11.04</t>
+          <t>10.60</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -4958,7 +4926,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>7/8"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -4998,12 +4966,12 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>91793A198</t>
+          <t>91793A197</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>11.66</t>
+          <t>11.04</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -5020,7 +4988,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>7/8"</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -5060,12 +5028,12 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>91793A199</t>
+          <t>91793A198</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>14.14</t>
+          <t>11.66</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -5082,7 +5050,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>1 1/4"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -5117,17 +5085,17 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>91793A201</t>
+          <t>91793A199</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>7.27</t>
+          <t>14.14</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -5144,7 +5112,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>1 1/4"</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -5184,12 +5152,12 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>91793A203</t>
+          <t>91793A201</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>7.79</t>
+          <t>7.27</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -5206,7 +5174,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>1 3/4"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -5246,12 +5214,12 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>91793A204</t>
+          <t>91793A203</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>10.97</t>
+          <t>7.79</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -5268,7 +5236,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2"</t>
+          <t>1 3/4"</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -5308,12 +5276,12 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>91793A205</t>
+          <t>91793A204</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>11.32</t>
+          <t>10.97</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -5330,17 +5298,17 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2 1/2"</t>
+          <t>2"</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Partially Threaded</t>
+          <t>Fully Threaded</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>__</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -5365,17 +5333,17 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>91793A207</t>
+          <t>91793A205</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>6.65</t>
+          <t>11.32</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -5392,27 +5360,27 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>2 1/2"</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Fully Threaded</t>
+          <t>Partially Threaded</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>__</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>0.399"</t>
+          <t>0.344"</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>0.123"</t>
+          <t>0.105"</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -5427,22 +5395,22 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>91793A238</t>
+          <t>91793A207</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>10.36</t>
+          <t>6.65</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>10-24</t>
+          <t>8-32</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
@@ -5454,7 +5422,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -5494,12 +5462,12 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>91793A240</t>
+          <t>91793A238</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>12.49</t>
+          <t>10.36</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -5516,7 +5484,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -5556,12 +5524,12 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>91793A242</t>
+          <t>91793A240</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>15.36</t>
+          <t>12.49</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -5578,7 +5546,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -5613,17 +5581,17 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>91793A244</t>
+          <t>91793A242</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>8.93</t>
+          <t>15.36</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -5640,7 +5608,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -5680,12 +5648,12 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>91793A245</t>
+          <t>91793A244</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>9.38</t>
+          <t>8.93</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -5702,7 +5670,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -5742,12 +5710,12 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>91793A247</t>
+          <t>91793A245</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>11.72</t>
+          <t>9.38</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -5764,7 +5732,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>1 1/4"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -5804,12 +5772,12 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>91793A249</t>
+          <t>91793A247</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>11.82</t>
+          <t>11.72</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -5826,7 +5794,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>1 1/4"</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -5861,17 +5829,17 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>91793A251</t>
+          <t>91793A249</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>7.22</t>
+          <t>11.82</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -5888,7 +5856,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>2"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -5928,12 +5896,12 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>91793A253</t>
+          <t>91793A251</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>8.61</t>
+          <t>7.22</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -5950,7 +5918,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>2"</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -5985,22 +5953,22 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>91793A825</t>
+          <t>91793A253</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>10.36</t>
+          <t>8.61</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>10-32</t>
+          <t>10-24</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
@@ -6012,7 +5980,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>5/16"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -6052,12 +6020,12 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>91793A826</t>
+          <t>91793A825</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>10.72</t>
+          <t>10.36</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -6074,7 +6042,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>5/16"</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -6114,12 +6082,12 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>91793A827</t>
+          <t>91793A826</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>12.48</t>
+          <t>10.72</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -6136,7 +6104,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -6176,12 +6144,12 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>91793A829</t>
+          <t>91793A827</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>14.76</t>
+          <t>12.48</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -6198,7 +6166,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -6233,17 +6201,17 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>91793A830</t>
+          <t>91793A829</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>8.93</t>
+          <t>14.76</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -6260,7 +6228,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -6300,12 +6268,12 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>91793A831</t>
+          <t>91793A830</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>9.38</t>
+          <t>8.93</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -6322,7 +6290,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -6362,12 +6330,12 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>91793A833</t>
+          <t>91793A831</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>11.72</t>
+          <t>9.38</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -6384,7 +6352,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>1 1/4"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -6419,17 +6387,17 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>91793A835</t>
+          <t>91793A833</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>6.37</t>
+          <t>11.72</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -6446,7 +6414,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>1 1/4"</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -6486,12 +6454,12 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>91793A836</t>
+          <t>91793A835</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>7.05</t>
+          <t>6.37</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -6508,7 +6476,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>2"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -6548,12 +6516,12 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>91793A838</t>
+          <t>91793A836</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>8.54</t>
+          <t>7.05</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -6570,7 +6538,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>2"</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -6585,12 +6553,12 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>0.454"</t>
+          <t>0.399"</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>0.141"</t>
+          <t>0.123"</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -6605,22 +6573,22 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>91793A291</t>
+          <t>91793A838</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>11.32</t>
+          <t>8.54</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>12-24</t>
+          <t>10-32</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
@@ -6632,7 +6600,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -6672,12 +6640,12 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>91793A293</t>
+          <t>91793A291</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>11.67</t>
+          <t>11.32</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
@@ -6694,7 +6662,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -6734,12 +6702,12 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>91793A294</t>
+          <t>91793A293</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>11.52</t>
+          <t>11.67</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
@@ -6756,7 +6724,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -6796,12 +6764,12 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>91793A296</t>
+          <t>91793A294</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>12.41</t>
+          <t>11.52</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
@@ -6818,7 +6786,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -6833,12 +6801,12 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>0.525"</t>
+          <t>0.454"</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>0.165"</t>
+          <t>0.141"</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -6853,22 +6821,22 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>91793A535</t>
+          <t>91793A296</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>4.90</t>
+          <t>12.41</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>1/4"-20</t>
+          <t>12-24</t>
         </is>
       </c>
       <c r="L104" t="inlineStr">
@@ -6880,7 +6848,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -6920,12 +6888,12 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>91793A537</t>
+          <t>91793A535</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>6.23</t>
+          <t>4.90</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -6942,7 +6910,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -6982,12 +6950,12 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>91793A539</t>
+          <t>91793A537</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>7.56</t>
+          <t>6.23</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
@@ -7004,7 +6972,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -7044,12 +7012,12 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>91793A540</t>
+          <t>91793A539</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>8.31</t>
+          <t>7.56</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
@@ -7066,7 +7034,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -7106,12 +7074,12 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>91793A542</t>
+          <t>91793A540</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>8.01</t>
+          <t>8.31</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
@@ -7128,7 +7096,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>1 1/4"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -7168,12 +7136,12 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>91793A544</t>
+          <t>91793A542</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>9.36</t>
+          <t>8.01</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
@@ -7190,7 +7158,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>1 1/4"</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -7230,12 +7198,12 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>91793A546</t>
+          <t>91793A544</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>9.05</t>
+          <t>9.36</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
@@ -7252,60 +7220,122 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
+          <t>1 1/2"</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>__</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.525"</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>0.165"</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>100,000</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>ASME B18.6.3</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>91793A546</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>9.05</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>1/4"-20</t>
+        </is>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
           <t>2"</t>
         </is>
       </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>__</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>__</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
         <is>
           <t>0.525"</t>
         </is>
       </c>
-      <c r="E111" t="inlineStr">
+      <c r="E112" t="inlineStr">
         <is>
           <t>0.165"</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>100,000</t>
-        </is>
-      </c>
-      <c r="G111" t="inlineStr">
-        <is>
-          <t>ASME B18.6.3</t>
-        </is>
-      </c>
-      <c r="H111" t="inlineStr">
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>100,000</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>ASME B18.6.3</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="I111" t="inlineStr">
+      <c r="I112" t="inlineStr">
         <is>
           <t>91793A550</t>
         </is>
       </c>
-      <c r="J111" t="inlineStr">
+      <c r="J112" t="inlineStr">
         <is>
           <t>4.47</t>
         </is>
       </c>
-      <c r="K111" t="inlineStr">
+      <c r="K112" t="inlineStr">
         <is>
           <t>1/4"-20</t>
         </is>
       </c>
-      <c r="L111" t="inlineStr">
+      <c r="L112" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
         </is>
